--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt6-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt6-Fzd7.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.418393</v>
+        <v>1.01111</v>
       </c>
       <c r="N2">
-        <v>7.255179</v>
+        <v>3.03333</v>
       </c>
       <c r="O2">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754557</v>
       </c>
       <c r="P2">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754556</v>
       </c>
       <c r="Q2">
-        <v>0.153497015972</v>
+        <v>0.06417582577333333</v>
       </c>
       <c r="R2">
-        <v>1.381473143748</v>
+        <v>0.57758243196</v>
       </c>
       <c r="S2">
-        <v>0.003613184349101967</v>
+        <v>0.001596073080558814</v>
       </c>
       <c r="T2">
-        <v>0.003613184349101966</v>
+        <v>0.001596073080558813</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>30.353977</v>
       </c>
       <c r="O3">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="P3">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="Q3">
         <v>0.642195718724889</v>
@@ -632,10 +632,10 @@
         <v>5.779761468524001</v>
       </c>
       <c r="S3">
-        <v>0.01511672070797992</v>
+        <v>0.01597161059878133</v>
       </c>
       <c r="T3">
-        <v>0.01511672070797992</v>
+        <v>0.01597161059878133</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>41.266181</v>
       </c>
       <c r="O4">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041227</v>
       </c>
       <c r="P4">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041226</v>
       </c>
       <c r="Q4">
         <v>0.873064006285778</v>
@@ -694,10 +694,10 @@
         <v>7.857576056572002</v>
       </c>
       <c r="S4">
-        <v>0.02055115653747605</v>
+        <v>0.0217133779152178</v>
       </c>
       <c r="T4">
-        <v>0.02055115653747605</v>
+        <v>0.02171337791521779</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.418393</v>
+        <v>1.01111</v>
       </c>
       <c r="N5">
-        <v>7.255179</v>
+        <v>3.03333</v>
       </c>
       <c r="O5">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754557</v>
       </c>
       <c r="P5">
-        <v>0.0919828589765645</v>
+        <v>0.04063212692754556</v>
       </c>
       <c r="Q5">
-        <v>3.754162546703</v>
+        <v>1.569584138143333</v>
       </c>
       <c r="R5">
-        <v>33.787462920327</v>
+        <v>14.12625724329</v>
       </c>
       <c r="S5">
-        <v>0.08836967462746254</v>
+        <v>0.03903605384698675</v>
       </c>
       <c r="T5">
-        <v>0.08836967462746252</v>
+        <v>0.03903605384698674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>30.353977</v>
       </c>
       <c r="O6">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="P6">
-        <v>0.3848348311969811</v>
+        <v>0.4065982422683317</v>
       </c>
       <c r="Q6">
         <v>15.70654061007789</v>
@@ -818,10 +818,10 @@
         <v>141.358865490701</v>
       </c>
       <c r="S6">
-        <v>0.3697181104890012</v>
+        <v>0.3906266316695504</v>
       </c>
       <c r="T6">
-        <v>0.3697181104890012</v>
+        <v>0.3906266316695504</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>41.266181</v>
       </c>
       <c r="O7">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041227</v>
       </c>
       <c r="P7">
-        <v>0.5231823098264544</v>
+        <v>0.5527696308041226</v>
       </c>
       <c r="Q7">
         <v>21.35301570859478</v>
@@ -880,10 +880,10 @@
         <v>192.177141377353</v>
       </c>
       <c r="S7">
-        <v>0.5026311532889783</v>
+        <v>0.5310562528889049</v>
       </c>
       <c r="T7">
-        <v>0.5026311532889783</v>
+        <v>0.5310562528889047</v>
       </c>
     </row>
   </sheetData>
